--- a/biology/Botanique/Hydrangea_quercifolia/Hydrangea_quercifolia.xlsx
+++ b/biology/Botanique/Hydrangea_quercifolia/Hydrangea_quercifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Hortensia à feuilles de chêne - Hydrangea quercifolia - est un arbuste de la famille des Hydrangeacées originaire d'Amérique du Nord.
 </t>
@@ -511,7 +523,9 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce compte un synonyme : Hydrangea radiata Sm. (1791) (il s'agit d'un homonyme de Hydrangea radiata Walter lui-même synonyme de Hydrangea arborescens subsp. radiata (Walter) E.M.McClint.)
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un arbuste caduc, à port très buissonnant et touffu, ne dépassant pas 2 m de haut.
 Les feuilles sont vert moyen, larges et glabres : leur forme multilobée (généralement pentalobée) rappelle celle des feuilles de chêne, particularité à l'origine de l'épithète spécifique.
@@ -575,9 +591,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une espèce très largement utilisée comme arbuste ornemental et qui se trouve aisément en France[1]. Elle peut s'accommoder d'un substrat neutre.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une espèce très largement utilisée comme arbuste ornemental et qui se trouve aisément en France. Elle peut s'accommoder d'un substrat neutre.
 De nombreuses variétés, cultivars et hybrides horticoles sont disponibles, dont :
 Hyndrangea quercifolia 'Alice' - variété virant au rose en fin de floraison
 Hyndrangea quercifolia 'Burgundy' - variété blanche virant au rose-rouge
